--- a/cases/Case_5bus_v1/5BusAC_ss.xlsx
+++ b/cases/Case_5bus_v1/5BusAC_ss.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28925"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29029"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hoss258\Projects_2324\ecomp_code_publish\ecomp-stability\SyNAPS\cases\Case_5bus\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hoss258\Projects_2324\ecomp_code_publish\pnnl_github_version\SyNAPS\cases\Case_5bus_v1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8342AFA5-A5A2-49D5-B21E-F6979907DF93}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{60D72F47-21B0-4D7F-A38E-34331F177C4B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2280" yWindow="2280" windowWidth="14400" windowHeight="8170" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="10" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Bus" sheetId="1" r:id="rId1"/>
@@ -1189,8 +1189,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{29CB7663-9AD7-4E06-AABF-9F04CD75999D}">
   <dimension ref="A1:I2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H19" sqref="H19"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I2" sqref="I2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2036,7 +2036,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:AC2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
